--- a/biology/Écologie/Llanos/Llanos.xlsx
+++ b/biology/Écologie/Llanos/Llanos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Llanos [ljanos] se réfèrent à la vaste plaine herbeuse qui s'étend au Nord-Ouest de l'Amérique du Sud, entre la Colombie et le Venezuela. Le terme vient de l'espagnol « llanos » (« plaines ») et désigne la formation végétale particulière de type savane de cette région géographique. Situés entre les Andes et la mer des Caraïbes le long du bassin de l'Orénoque, les Llanos forment une écorégion terrestre qui appartient au biome des prairies, savanes et brousses tropicales et subtropicales de l'écozone néotropicale.
 La région possède de grandes surfaces de marécages et de savanes, permettant notamment l'élevage bovin. Ils sont aussi le lieu d'agriculture intensive. 
@@ -514,7 +526,9 @@
           <t>Écosystème</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le niveau de l'eau varie beaucoup durant l'année transformant de grandes étendues en un lac couvert de plantes où broutent les capybaras et où on rencontre l'anaconda.
 Le delta de l'Orénoque est plus particulièrement le lieu spécifique d'un écosystème particulier créé par des vers géants et nommé les surales.
@@ -546,7 +560,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Llaneros, de même que les Pamperos argentins sont souvent représentés comme les cow-boys de l'Amérique du Sud.
 Il existe une culture et un folklore spécifique aux Llanos notamment au niveau de la musique et du chant (canto llanero). Le rythme principal s'appelle le joropo. Son origine est disputée entre la Colombie et le Venezuela.
@@ -580,8 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Au Venezuela
-Sur le territoire vénézuélien, les Llanos recouvrent tout ou partie de 7 des 24 États fédéraux. Ils concentrent 14 % des habitants du pays. Ils se subdivisent en trois régions :
+          <t>Au Venezuela</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sur le territoire vénézuélien, les Llanos recouvrent tout ou partie de 7 des 24 États fédéraux. Ils concentrent 14 % des habitants du pays. Ils se subdivisent en trois régions :
 Llanos occidentaux : ils recouvrent les trois États Apure, Barinas et Portuguesa. Ils sont considérés comme les véritables Llanos vénézuéliens.
 Principales villes de l'État d’Apure :
 San Fernando de Apure, capitale de l’État avec 132 000 habitants (recensement 2001) ;
@@ -613,9 +634,43 @@
 Villes principales de l'État de Monagas :
 Maturín capitale de l'État, avec 404 649 habitants en 2001.
 Punta de Mata, avec 52 122 habitants en 2001.
-Temblador capitale de la municipalité de Libertador, avec 37 804 habitants en 2001.
-En Colombie
-Sur le territoire colombien, les Llanos englobent les départements de Arauca, Casanare, Vichada, Guainía, Meta, Vaupés et Guaviare et une partie de Caqueta.
+Temblador capitale de la municipalité de Libertador, avec 37 804 habitants en 2001.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Llanos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Llanos</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Découpage administratif</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En Colombie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sur le territoire colombien, les Llanos englobent les départements de Arauca, Casanare, Vichada, Guainía, Meta, Vaupés et Guaviare et une partie de Caqueta.
 Ce territoire correspond à la région Orénoquie et une partie de la région Amazonique.
 Les villes principales colombiennes des Llanos sont :
 Villavicencio, capitale du département du Meta, avec 380 000 habitants environ en 2005 ;
@@ -631,31 +686,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Llanos</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Llanos</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Infrastructures</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le pont José-Antonio-Páez réunit les villes d’El Amparo au Venezuela et d’Arauca en Colombie. C'est une des infrastructures les plus importantes de la région.
 La route de la Forêt (Carretera marginal de la selva) est en cours de construction par tronçons. C'est un projet international qui vise à intégrer la région des Llanos avec la région amazonienne des pays andins.</t>
